--- a/Task2/Results/GroupByPropertyID/BG.xlsx
+++ b/Task2/Results/GroupByPropertyID/BG.xlsx
@@ -547,10 +547,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>210000</v>
+        <v>15000</v>
       </c>
       <c r="H2">
-        <v>210000</v>
+        <v>15000</v>
       </c>
       <c r="I2">
         <v>52</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>545</v>
+        <v>490</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -582,19 +582,19 @@
         <v>16</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>281250</v>
+        <v>34615.38461538462</v>
       </c>
       <c r="H3">
-        <v>281250</v>
+        <v>17307.69230769231</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>723</v>
+        <v>650</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -620,19 +620,19 @@
         <v>17</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>281250</v>
+        <v>34615.38461538462</v>
       </c>
       <c r="H4">
-        <v>281250</v>
+        <v>17307.69230769231</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>1049</v>
+        <v>931</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>1600</v>
+        <v>1435</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -696,19 +696,19 @@
         <v>19</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>52500</v>
       </c>
       <c r="H6">
-        <v>52500</v>
+        <v>26250</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>2618</v>
+        <v>2354</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>2866</v>
+        <v>2576</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
-        <v>2867</v>
+        <v>2577</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
-        <v>3663</v>
+        <v>3270</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -851,16 +851,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>52500</v>
+        <v>26250</v>
       </c>
       <c r="H10">
-        <v>52500</v>
+        <v>26250</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
-        <v>3784</v>
+        <v>3379</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -886,16 +886,16 @@
         <v>24</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>26250</v>
       </c>
       <c r="H11">
-        <v>26250</v>
+        <v>13125</v>
       </c>
       <c r="I11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
-        <v>3847</v>
+        <v>3435</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -924,19 +924,19 @@
         <v>24</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>26250</v>
       </c>
       <c r="H12">
-        <v>26250</v>
+        <v>13125</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
-        <v>4038</v>
+        <v>3608</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
-        <v>4337</v>
+        <v>3867</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
-        <v>5557</v>
+        <v>4958</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -1041,16 +1041,16 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="H15">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
-        <v>5558</v>
+        <v>4959</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -1079,16 +1079,16 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="H16">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
-        <v>5704</v>
+        <v>5100</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1">
-        <v>5853</v>
+        <v>5235</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
-        <v>6236</v>
+        <v>5587</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -1193,13 +1193,13 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>59500</v>
+        <v>29750</v>
       </c>
       <c r="H19">
-        <v>59500</v>
+        <v>29750</v>
       </c>
       <c r="I19">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>6865</v>
+        <v>6135</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -1231,13 +1231,13 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>210000</v>
+        <v>15000</v>
       </c>
       <c r="H20">
-        <v>210000</v>
+        <v>15000</v>
       </c>
       <c r="I20">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
-        <v>7803</v>
+        <v>6987</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -1269,16 +1269,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56250</v>
+        <v>18750</v>
       </c>
       <c r="H21">
-        <v>56250</v>
+        <v>18750</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
-        <v>8213</v>
+        <v>7369</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <v>8296</v>
+        <v>7445</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -1345,16 +1345,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>206250</v>
+        <v>15865.38461538462</v>
       </c>
       <c r="H23">
-        <v>206250</v>
+        <v>15865.38461538462</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
-        <v>8388</v>
+        <v>7532</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -1380,19 +1380,19 @@
         <v>35</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>281250</v>
+        <v>34615.38461538462</v>
       </c>
       <c r="H24">
-        <v>281250</v>
+        <v>17307.69230769231</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1">
-        <v>12762</v>
+        <v>11551</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -1427,7 +1427,7 @@
         <v>20000</v>
       </c>
       <c r="I25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J25">
         <v>0</v>
